--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ccl5-Sdc1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ccl5-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Sdc1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>6.87530488488643</v>
+        <v>0.9331043333333334</v>
       </c>
       <c r="H2">
-        <v>6.87530488488643</v>
+        <v>2.799313</v>
       </c>
       <c r="I2">
-        <v>0.3314424897862902</v>
+        <v>0.0200380644147157</v>
       </c>
       <c r="J2">
-        <v>0.3314424897862902</v>
+        <v>0.0201696361339749</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N2">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O2">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P2">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q2">
-        <v>9.194198517449502</v>
+        <v>1.790781799951222</v>
       </c>
       <c r="R2">
-        <v>9.194198517449502</v>
+        <v>16.117036199561</v>
       </c>
       <c r="S2">
-        <v>0.02339569049172129</v>
+        <v>0.001839479391738573</v>
       </c>
       <c r="T2">
-        <v>0.02339569049172129</v>
+        <v>0.002096536264064237</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>6.87530488488643</v>
+        <v>0.9331043333333334</v>
       </c>
       <c r="H3">
-        <v>6.87530488488643</v>
+        <v>2.799313</v>
       </c>
       <c r="I3">
-        <v>0.3314424897862902</v>
+        <v>0.0200380644147157</v>
       </c>
       <c r="J3">
-        <v>0.3314424897862902</v>
+        <v>0.0201696361339749</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N3">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O3">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P3">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q3">
-        <v>57.37368716065626</v>
+        <v>8.070168373934333</v>
       </c>
       <c r="R3">
-        <v>57.37368716065626</v>
+        <v>72.631515365409</v>
       </c>
       <c r="S3">
-        <v>0.1459939139482399</v>
+        <v>0.008289624348492343</v>
       </c>
       <c r="T3">
-        <v>0.1459939139482399</v>
+        <v>0.009448052606698652</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>6.87530488488643</v>
+        <v>0.9331043333333334</v>
       </c>
       <c r="H4">
-        <v>6.87530488488643</v>
+        <v>2.799313</v>
       </c>
       <c r="I4">
-        <v>0.3314424897862902</v>
+        <v>0.0200380644147157</v>
       </c>
       <c r="J4">
-        <v>0.3314424897862902</v>
+        <v>0.0201696361339749</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N4">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O4">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P4">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q4">
-        <v>6.881696719355957</v>
+        <v>0.9976228993573335</v>
       </c>
       <c r="R4">
-        <v>6.881696719355957</v>
+        <v>8.978606094216001</v>
       </c>
       <c r="S4">
-        <v>0.01751126497849518</v>
+        <v>0.001024751739237178</v>
       </c>
       <c r="T4">
-        <v>0.01751126497849518</v>
+        <v>0.00116795501630658</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>6.87530488488643</v>
+        <v>0.9331043333333334</v>
       </c>
       <c r="H5">
-        <v>6.87530488488643</v>
+        <v>2.799313</v>
       </c>
       <c r="I5">
-        <v>0.3314424897862902</v>
+        <v>0.0200380644147157</v>
       </c>
       <c r="J5">
-        <v>0.3314424897862902</v>
+        <v>0.0201696361339749</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N5">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O5">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P5">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q5">
-        <v>9.694915114043992</v>
+        <v>1.810672162955334</v>
       </c>
       <c r="R5">
-        <v>9.694915114043992</v>
+        <v>16.296049466598</v>
       </c>
       <c r="S5">
-        <v>0.0246698211835657</v>
+        <v>0.001859910642961508</v>
       </c>
       <c r="T5">
-        <v>0.0246698211835657</v>
+        <v>0.002119822667435467</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>6.87530488488643</v>
+        <v>0.9331043333333334</v>
       </c>
       <c r="H6">
-        <v>6.87530488488643</v>
+        <v>2.799313</v>
       </c>
       <c r="I6">
-        <v>0.3314424897862902</v>
+        <v>0.0200380644147157</v>
       </c>
       <c r="J6">
-        <v>0.3314424897862902</v>
+        <v>0.0201696361339749</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N6">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O6">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P6">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q6">
-        <v>47.10803977912066</v>
+        <v>6.838340019327667</v>
       </c>
       <c r="R6">
-        <v>47.10803977912066</v>
+        <v>41.030040115966</v>
       </c>
       <c r="S6">
-        <v>0.119871799184268</v>
+        <v>0.007024298292286101</v>
       </c>
       <c r="T6">
-        <v>0.119871799184268</v>
+        <v>0.005337269579469965</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.846178422799589</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H7">
-        <v>8.846178422799589</v>
+        <v>22.398687</v>
       </c>
       <c r="I7">
-        <v>0.4264537283272617</v>
+        <v>0.1603344581013467</v>
       </c>
       <c r="J7">
-        <v>0.4264537283272617</v>
+        <v>0.1613872284624099</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N7">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O7">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P7">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q7">
-        <v>11.82980564524322</v>
+        <v>14.328930356271</v>
       </c>
       <c r="R7">
-        <v>11.82980564524322</v>
+        <v>128.960373206439</v>
       </c>
       <c r="S7">
-        <v>0.03010229449886878</v>
+        <v>0.01471858385914783</v>
       </c>
       <c r="T7">
-        <v>0.03010229449886878</v>
+        <v>0.01677542295660549</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.846178422799589</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H8">
-        <v>8.846178422799589</v>
+        <v>22.398687</v>
       </c>
       <c r="I8">
-        <v>0.4264537283272617</v>
+        <v>0.1603344581013467</v>
       </c>
       <c r="J8">
-        <v>0.4264537283272617</v>
+        <v>0.1613872284624099</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N8">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O8">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P8">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q8">
-        <v>73.82041696983377</v>
+        <v>64.57340620539901</v>
       </c>
       <c r="R8">
-        <v>73.82041696983377</v>
+        <v>581.1606558485911</v>
       </c>
       <c r="S8">
-        <v>0.1878445004334253</v>
+        <v>0.06632938193387411</v>
       </c>
       <c r="T8">
-        <v>0.1878445004334253</v>
+        <v>0.07559853903331896</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.846178422799589</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H9">
-        <v>8.846178422799589</v>
+        <v>22.398687</v>
       </c>
       <c r="I9">
-        <v>0.4264537283272617</v>
+        <v>0.1603344581013467</v>
       </c>
       <c r="J9">
-        <v>0.4264537283272617</v>
+        <v>0.1613872284624099</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N9">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O9">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P9">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q9">
-        <v>8.854402539273424</v>
+        <v>7.982473937976001</v>
       </c>
       <c r="R9">
-        <v>8.854402539273424</v>
+        <v>71.84226544178401</v>
       </c>
       <c r="S9">
-        <v>0.02253104073234842</v>
+        <v>0.008199545195510175</v>
       </c>
       <c r="T9">
-        <v>0.02253104073234842</v>
+        <v>0.009345385400036002</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.846178422799589</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H10">
-        <v>8.846178422799589</v>
+        <v>22.398687</v>
       </c>
       <c r="I10">
-        <v>0.4264537283272617</v>
+        <v>0.1603344581013467</v>
       </c>
       <c r="J10">
-        <v>0.4264537283272617</v>
+        <v>0.1613872284624099</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N10">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O10">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P10">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q10">
-        <v>12.47405756234274</v>
+        <v>14.488082982378</v>
       </c>
       <c r="R10">
-        <v>12.47405756234274</v>
+        <v>130.392746841402</v>
       </c>
       <c r="S10">
-        <v>0.03174166724273029</v>
+        <v>0.01488206439925209</v>
       </c>
       <c r="T10">
-        <v>0.03174166724273029</v>
+        <v>0.01696174898033629</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.846178422799589</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H11">
-        <v>8.846178422799589</v>
+        <v>22.398687</v>
       </c>
       <c r="I11">
-        <v>0.4264537283272617</v>
+        <v>0.1603344581013467</v>
       </c>
       <c r="J11">
-        <v>0.4264537283272617</v>
+        <v>0.1613872284624099</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N11">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O11">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P11">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q11">
-        <v>60.61202114112873</v>
+        <v>54.71693865333901</v>
       </c>
       <c r="R11">
-        <v>60.61202114112873</v>
+        <v>328.301631920034</v>
       </c>
       <c r="S11">
-        <v>0.154234225419889</v>
+        <v>0.05620488271356254</v>
       </c>
       <c r="T11">
-        <v>0.154234225419889</v>
+        <v>0.0427061320921131</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.17172141548251</v>
+        <v>29.07980133333333</v>
       </c>
       <c r="H12">
-        <v>4.17172141548251</v>
+        <v>87.23940399999999</v>
       </c>
       <c r="I12">
-        <v>0.2011090061884797</v>
+        <v>0.6244777903912161</v>
       </c>
       <c r="J12">
-        <v>0.2011090061884797</v>
+        <v>0.6285781672949164</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N12">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O12">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P12">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q12">
-        <v>5.578754032822097</v>
+        <v>55.80895631242088</v>
       </c>
       <c r="R12">
-        <v>5.578754032822097</v>
+        <v>502.2806068117879</v>
       </c>
       <c r="S12">
-        <v>0.01419577817834132</v>
+        <v>0.05732659613467862</v>
       </c>
       <c r="T12">
-        <v>0.01419577817834132</v>
+        <v>0.06533766468463893</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.17172141548251</v>
+        <v>29.07980133333333</v>
       </c>
       <c r="H13">
-        <v>4.17172141548251</v>
+        <v>87.23940399999999</v>
       </c>
       <c r="I13">
-        <v>0.2011090061884797</v>
+        <v>0.6244777903912161</v>
       </c>
       <c r="J13">
-        <v>0.2011090061884797</v>
+        <v>0.6285781672949164</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N13">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O13">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P13">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q13">
-        <v>34.81257099440723</v>
+        <v>251.5033792654413</v>
       </c>
       <c r="R13">
-        <v>34.81257099440723</v>
+        <v>2263.530413388972</v>
       </c>
       <c r="S13">
-        <v>0.08858457152741145</v>
+        <v>0.2583426317622789</v>
       </c>
       <c r="T13">
-        <v>0.08858457152741145</v>
+        <v>0.2944445577786538</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.17172141548251</v>
+        <v>29.07980133333333</v>
       </c>
       <c r="H14">
-        <v>4.17172141548251</v>
+        <v>87.23940399999999</v>
       </c>
       <c r="I14">
-        <v>0.2011090061884797</v>
+        <v>0.6244777903912161</v>
       </c>
       <c r="J14">
-        <v>0.2011090061884797</v>
+        <v>0.6285781672949164</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N14">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O14">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P14">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q14">
-        <v>4.175599782069476</v>
+        <v>31.09049511672534</v>
       </c>
       <c r="R14">
-        <v>4.175599782069476</v>
+        <v>279.814456050528</v>
       </c>
       <c r="S14">
-        <v>0.01062529158285959</v>
+        <v>0.03193595392119954</v>
       </c>
       <c r="T14">
-        <v>0.01062529158285959</v>
+        <v>0.03639882339752515</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.17172141548251</v>
+        <v>29.07980133333333</v>
       </c>
       <c r="H15">
-        <v>4.17172141548251</v>
+        <v>87.23940399999999</v>
       </c>
       <c r="I15">
-        <v>0.2011090061884797</v>
+        <v>0.6244777903912161</v>
       </c>
       <c r="J15">
-        <v>0.2011090061884797</v>
+        <v>0.6285781672949164</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N15">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O15">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P15">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q15">
-        <v>5.882573308341434</v>
+        <v>56.42883105090933</v>
       </c>
       <c r="R15">
-        <v>5.882573308341434</v>
+        <v>507.859479458184</v>
       </c>
       <c r="S15">
-        <v>0.01496888109992596</v>
+        <v>0.05796332742541427</v>
       </c>
       <c r="T15">
-        <v>0.01496888109992596</v>
+        <v>0.06606337558278061</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.17172141548251</v>
+        <v>29.07980133333333</v>
       </c>
       <c r="H16">
-        <v>4.17172141548251</v>
+        <v>87.23940399999999</v>
       </c>
       <c r="I16">
-        <v>0.2011090061884797</v>
+        <v>0.6244777903912161</v>
       </c>
       <c r="J16">
-        <v>0.2011090061884797</v>
+        <v>0.6285781672949164</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N16">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O16">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P16">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q16">
-        <v>28.58369507655745</v>
+        <v>213.1139703332547</v>
       </c>
       <c r="R16">
-        <v>28.58369507655745</v>
+        <v>1278.683821999528</v>
       </c>
       <c r="S16">
-        <v>0.07273448379994139</v>
+        <v>0.2189092811476448</v>
       </c>
       <c r="T16">
-        <v>0.07273448379994139</v>
+        <v>0.1663337458513179</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.85037854317592</v>
+        <v>8.176158000000001</v>
       </c>
       <c r="H17">
-        <v>0.85037854317592</v>
+        <v>24.528474</v>
       </c>
       <c r="I17">
-        <v>0.04099477569796833</v>
+        <v>0.1755799162175431</v>
       </c>
       <c r="J17">
-        <v>0.04099477569796833</v>
+        <v>0.1767327896171896</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N17">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O17">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P17">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q17">
-        <v>1.137193080429925</v>
+        <v>15.691401718842</v>
       </c>
       <c r="R17">
-        <v>1.137193080429925</v>
+        <v>141.222615469578</v>
       </c>
       <c r="S17">
-        <v>0.002893717955792635</v>
+        <v>0.01611810556154149</v>
       </c>
       <c r="T17">
-        <v>0.002893717955792635</v>
+        <v>0.01837051992512333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.85037854317592</v>
+        <v>8.176158000000001</v>
       </c>
       <c r="H18">
-        <v>0.85037854317592</v>
+        <v>24.528474</v>
       </c>
       <c r="I18">
-        <v>0.04099477569796833</v>
+        <v>0.1755799162175431</v>
       </c>
       <c r="J18">
-        <v>0.04099477569796833</v>
+        <v>0.1767327896171896</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N18">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O18">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P18">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q18">
-        <v>7.096318391866601</v>
+        <v>70.713391155498</v>
       </c>
       <c r="R18">
-        <v>7.096318391866601</v>
+        <v>636.4205203994821</v>
       </c>
       <c r="S18">
-        <v>0.01805739438970431</v>
+        <v>0.0726363344512605</v>
       </c>
       <c r="T18">
-        <v>0.01805739438970431</v>
+        <v>0.08278685260063455</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.85037854317592</v>
+        <v>8.176158000000001</v>
       </c>
       <c r="H19">
-        <v>0.85037854317592</v>
+        <v>24.528474</v>
       </c>
       <c r="I19">
-        <v>0.04099477569796833</v>
+        <v>0.1755799162175431</v>
       </c>
       <c r="J19">
-        <v>0.04099477569796833</v>
+        <v>0.1767327896171896</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N19">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O19">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P19">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q19">
-        <v>0.8511691232266122</v>
+        <v>8.741490268752003</v>
       </c>
       <c r="R19">
-        <v>0.8511691232266122</v>
+        <v>78.67341241876801</v>
       </c>
       <c r="S19">
-        <v>0.002165897258507718</v>
+        <v>0.008979201822852216</v>
       </c>
       <c r="T19">
-        <v>0.002165897258507718</v>
+        <v>0.01023399464463085</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.85037854317592</v>
+        <v>8.176158000000001</v>
       </c>
       <c r="H20">
-        <v>0.85037854317592</v>
+        <v>24.528474</v>
       </c>
       <c r="I20">
-        <v>0.04099477569796833</v>
+        <v>0.1755799162175431</v>
       </c>
       <c r="J20">
-        <v>0.04099477569796833</v>
+        <v>0.1767327896171896</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N20">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O20">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P20">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q20">
-        <v>1.19912468304031</v>
+        <v>15.865687428156</v>
       </c>
       <c r="R20">
-        <v>1.19912468304031</v>
+        <v>142.791186853404</v>
       </c>
       <c r="S20">
-        <v>0.003051310007299783</v>
+        <v>0.01629713070607132</v>
       </c>
       <c r="T20">
-        <v>0.003051310007299783</v>
+        <v>0.01857456282409345</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8.176158000000001</v>
+      </c>
+      <c r="H21">
+        <v>24.528474</v>
+      </c>
+      <c r="I21">
+        <v>0.1755799162175431</v>
+      </c>
+      <c r="J21">
+        <v>0.1767327896171896</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.328590999999999</v>
+      </c>
+      <c r="N21">
+        <v>14.657182</v>
+      </c>
+      <c r="O21">
+        <v>0.3505477448773717</v>
+      </c>
+      <c r="P21">
+        <v>0.2646190314995103</v>
+      </c>
+      <c r="Q21">
+        <v>59.919717933378</v>
+      </c>
+      <c r="R21">
+        <v>359.518307600268</v>
+      </c>
+      <c r="S21">
+        <v>0.0615491436758176</v>
+      </c>
+      <c r="T21">
+        <v>0.04676685962270742</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.9112975</v>
+      </c>
+      <c r="H22">
+        <v>1.822595</v>
+      </c>
+      <c r="I22">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J22">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.919165666666667</v>
+      </c>
+      <c r="N22">
+        <v>5.757497</v>
+      </c>
+      <c r="O22">
+        <v>0.09179925534063474</v>
+      </c>
+      <c r="P22">
+        <v>0.1039451703609422</v>
+      </c>
+      <c r="Q22">
+        <v>1.748930874119166</v>
+      </c>
+      <c r="R22">
+        <v>10.493585244715</v>
+      </c>
+      <c r="S22">
+        <v>0.001796490393528214</v>
+      </c>
+      <c r="T22">
+        <v>0.001365026530510221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.9112975</v>
+      </c>
+      <c r="H23">
+        <v>1.822595</v>
+      </c>
+      <c r="I23">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J23">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.648731</v>
+      </c>
+      <c r="N23">
+        <v>25.946193</v>
+      </c>
+      <c r="O23">
+        <v>0.4136938666792861</v>
+      </c>
+      <c r="P23">
+        <v>0.4684295018482661</v>
+      </c>
+      <c r="Q23">
+        <v>7.8815669384725</v>
+      </c>
+      <c r="R23">
+        <v>47.289401630835</v>
+      </c>
+      <c r="S23">
+        <v>0.008095894183380208</v>
+      </c>
+      <c r="T23">
+        <v>0.006151499828960152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.9112975</v>
+      </c>
+      <c r="H24">
+        <v>1.822595</v>
+      </c>
+      <c r="I24">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J24">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.069144</v>
+      </c>
+      <c r="N24">
+        <v>3.207432</v>
+      </c>
+      <c r="O24">
+        <v>0.05114025576665047</v>
+      </c>
+      <c r="P24">
+        <v>0.05790659824245461</v>
+      </c>
+      <c r="Q24">
+        <v>0.97430825434</v>
+      </c>
+      <c r="R24">
+        <v>5.84584952604</v>
+      </c>
+      <c r="S24">
+        <v>0.001000803087851368</v>
+      </c>
+      <c r="T24">
+        <v>0.0007604397839560246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.85037854317592</v>
-      </c>
-      <c r="H21">
-        <v>0.85037854317592</v>
-      </c>
-      <c r="I21">
-        <v>0.04099477569796833</v>
-      </c>
-      <c r="J21">
-        <v>0.04099477569796833</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>6.85177465841194</v>
-      </c>
-      <c r="N21">
-        <v>6.85177465841194</v>
-      </c>
-      <c r="O21">
-        <v>0.3616669644907623</v>
-      </c>
-      <c r="P21">
-        <v>0.3616669644907623</v>
-      </c>
-      <c r="Q21">
-        <v>5.826602152190032</v>
-      </c>
-      <c r="R21">
-        <v>5.826602152190032</v>
-      </c>
-      <c r="S21">
-        <v>0.01482645608666388</v>
-      </c>
-      <c r="T21">
-        <v>0.01482645608666388</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9112975</v>
+      </c>
+      <c r="H25">
+        <v>1.822595</v>
+      </c>
+      <c r="I25">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J25">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.940482</v>
+      </c>
+      <c r="N25">
+        <v>5.821446</v>
+      </c>
+      <c r="O25">
+        <v>0.09281887733605711</v>
+      </c>
+      <c r="P25">
+        <v>0.1050996980488267</v>
+      </c>
+      <c r="Q25">
+        <v>1.768356395395</v>
+      </c>
+      <c r="R25">
+        <v>10.61013837237</v>
+      </c>
+      <c r="S25">
+        <v>0.001816444162357922</v>
+      </c>
+      <c r="T25">
+        <v>0.00138018799418091</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.9112975</v>
+      </c>
+      <c r="H26">
+        <v>1.822595</v>
+      </c>
+      <c r="I26">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J26">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>7.328590999999999</v>
+      </c>
+      <c r="N26">
+        <v>14.657182</v>
+      </c>
+      <c r="O26">
+        <v>0.3505477448773717</v>
+      </c>
+      <c r="P26">
+        <v>0.2646190314995103</v>
+      </c>
+      <c r="Q26">
+        <v>6.678526656822499</v>
+      </c>
+      <c r="R26">
+        <v>26.71410662729</v>
+      </c>
+      <c r="S26">
+        <v>0.00686013904806064</v>
+      </c>
+      <c r="T26">
+        <v>0.003475024353901854</v>
       </c>
     </row>
   </sheetData>
